--- a/pypi/prokabaddidata/1_DATA/DATA__Tableau-Data/Defender_Skills/AllSeasons_AllTeams_DefenderSuccessRate.xlsx
+++ b/pypi/prokabaddidata/1_DATA/DATA__Tableau-Data/Defender_Skills/AllSeasons_AllTeams_DefenderSuccessRate.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annimukh/Documents/acode/ProKabaddi_API/pypi/prokabaddidata/DATA/DATA__tableau_data/defender skills_d/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annimukh/Documents/acode/ProKabaddi_API/pypi/prokabaddidata/1_DATA/DATA__Tableau-Data/Defender_Skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E960DBA8-FBF6-3E46-8719-29342627C43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BC0F45-E0C1-2748-8745-8BE11B320764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="900" windowWidth="20540" windowHeight="24940" xr2:uid="{3412FCF7-80C5-4241-8A08-59807F8B4B52}"/>
+    <workbookView xWindow="20" yWindow="900" windowWidth="41080" windowHeight="24940" xr2:uid="{3412FCF7-80C5-4241-8A08-59807F8B4B52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$990</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1905,7 +1908,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21706,6 +21709,7 @@
       <c r="B1048576" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F990" xr:uid="{5FD3B8F6-044D-D549-AE2B-A6477BAE3DD5}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
